--- a/biology/Botanique/Lupinus_texensis/Lupinus_texensis.xlsx
+++ b/biology/Botanique/Lupinus_texensis/Lupinus_texensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lupinus texensis, le lupin  du Texas,  est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Nord (Texas, Nord-Est du Mexique).
-Ce sont des plantes herbacées annuelles pouvant atteindre 30 cm de haut, aux fleurs papilionacées bleues et blanches. La pointe des inflorescences est remarquablement blanche. Ces lupins fleurissent abondamment au début du printemps, recouvrant les prairies du centre du Texas d'un tapis bleu apprécié des touristes et des artistes. Plante facile à cultiver, le lupin du Texas est parfois cultivé dans les jardins comme plante d'ornement. Le département des Transports du Texas (Texas Department of Transportation) ensemence chaque année à l'aide de graines de ce lupin le bord des autoroutes de l'État pour les embellir au printemps[2]. 
-Sous le nom de Bluebonnet, l'espèce a été déclarée depuis 1901 « fleur officielle » de l'État du Texas, titre qu'elle partage avec les cinq autres espèces de lupins indigènes du Texas : Lupinus concinnus, Lupinus havardii, Lupinus perennis, Lupinus plattensis et Lupinus subcarnosus[3],[2].
+Ce sont des plantes herbacées annuelles pouvant atteindre 30 cm de haut, aux fleurs papilionacées bleues et blanches. La pointe des inflorescences est remarquablement blanche. Ces lupins fleurissent abondamment au début du printemps, recouvrant les prairies du centre du Texas d'un tapis bleu apprécié des touristes et des artistes. Plante facile à cultiver, le lupin du Texas est parfois cultivé dans les jardins comme plante d'ornement. Le département des Transports du Texas (Texas Department of Transportation) ensemence chaque année à l'aide de graines de ce lupin le bord des autoroutes de l'État pour les embellir au printemps. 
+Sous le nom de Bluebonnet, l'espèce a été déclarée depuis 1901 « fleur officielle » de l'État du Texas, titre qu'elle partage avec les cinq autres espèces de lupins indigènes du Texas : Lupinus concinnus, Lupinus havardii, Lupinus perennis, Lupinus plattensis et Lupinus subcarnosus,.
 </t>
         </is>
       </c>
